--- a/wzrv/expdata/2016sig.xlsx
+++ b/wzrv/expdata/2016sig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5C0A6F-D421-6749-9F0A-0B68F52661AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672ED85F-C802-094A-81EC-09CE53E2AF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="900" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="20">
   <si>
     <t>cms</t>
   </si>
@@ -87,10 +87,13 @@
     <t>sig</t>
   </si>
   <si>
-    <t>syst_c</t>
-  </si>
-  <si>
     <t>norm_c</t>
+  </si>
+  <si>
+    <t>syst_u</t>
+  </si>
+  <si>
+    <t>pt_max</t>
   </si>
 </sst>
 </file>
@@ -411,21 +414,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="10.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="1"/>
-    <col min="13" max="13" width="17.1640625" style="1" customWidth="1"/>
-    <col min="1014" max="1025" width="10.5" customWidth="1"/>
+    <col min="1" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1"/>
+    <col min="14" max="14" width="17.1640625" style="1" customWidth="1"/>
+    <col min="1015" max="1026" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,34 +442,37 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>7000</v>
       </c>
@@ -479,35 +485,38 @@
       <c r="D2" s="1">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>753.6</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>4.8</v>
       </c>
-      <c r="H2" s="1">
-        <v>16</v>
-      </c>
       <c r="I2" s="1">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1">
         <v>12.8</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>7000</v>
       </c>
@@ -520,35 +529,38 @@
       <c r="D3" s="1">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>701.2</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>3.6</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>14.4</v>
       </c>
-      <c r="I3" s="1">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
+      <c r="J3" s="1">
+        <v>12</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>7000</v>
       </c>
@@ -561,35 +573,38 @@
       <c r="D4" s="1">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>605.20000000000005</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>3.2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>10.4</v>
       </c>
       <c r="I4" s="1">
         <v>10.4</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
+      <c r="J4" s="1">
+        <v>10.4</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7000</v>
       </c>
@@ -602,35 +617,38 @@
       <c r="D5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>481.2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>2.8</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>8</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>8.4</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7000</v>
       </c>
@@ -643,35 +661,38 @@
       <c r="D6" s="1">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>369.6</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>2.4</v>
-      </c>
-      <c r="H6" s="1">
-        <v>6.4</v>
       </c>
       <c r="I6" s="1">
         <v>6.4</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
+      <c r="J6" s="1">
+        <v>6.4</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7000</v>
       </c>
@@ -684,35 +705,38 @@
       <c r="D7" s="1">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>241.6</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>4</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7000</v>
       </c>
@@ -725,35 +749,38 @@
       <c r="D8" s="1">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>117.6</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>16</v>
+      <c r="J8" s="1">
+        <v>2</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7000</v>
       </c>
@@ -766,35 +793,38 @@
       <c r="D9" s="1">
         <v>20</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>28.2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.8</v>
       </c>
       <c r="H9" s="1">
         <v>0.8</v>
       </c>
       <c r="I9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="1">
         <v>0.4</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7000</v>
       </c>
@@ -807,35 +837,38 @@
       <c r="D10" s="1">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>435.6</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>3.6</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>9.6</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>7.6</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7000</v>
       </c>
@@ -848,35 +881,38 @@
       <c r="D11" s="1">
         <v>20</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>411.2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>2.8</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>7.2</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7000</v>
       </c>
@@ -889,35 +925,38 @@
       <c r="D12" s="1">
         <v>20</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>376.8</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>2.8</v>
-      </c>
-      <c r="H12" s="1">
-        <v>6.4</v>
       </c>
       <c r="I12" s="1">
         <v>6.4</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>16</v>
+      <c r="J12" s="1">
+        <v>6.4</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>7000</v>
       </c>
@@ -930,35 +969,38 @@
       <c r="D13" s="1">
         <v>20</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>346.8</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>2.4</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>7.2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>6</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>7000</v>
       </c>
@@ -971,35 +1013,38 @@
       <c r="D14" s="1">
         <v>20</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="1">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>316</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>2.4</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>6.4</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>5.6</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>7000</v>
       </c>
@@ -1012,35 +1057,38 @@
       <c r="D15" s="1">
         <v>20</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>268.8</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>2</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>6.4</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>7000</v>
       </c>
@@ -1053,35 +1101,38 @@
       <c r="D16" s="1">
         <v>20</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="1">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>188</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>1.4</v>
-      </c>
-      <c r="H16" s="1">
-        <v>3.2</v>
       </c>
       <c r="I16" s="1">
         <v>3.2</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>16</v>
+      <c r="J16" s="1">
+        <v>3.2</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>7000</v>
       </c>
@@ -1094,31 +1145,34 @@
       <c r="D17" s="1">
         <v>20</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="1">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>85.8</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>1.4</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>2.6</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>1.4</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K17" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/wzrv/expdata/2016sig.xlsx
+++ b/wzrv/expdata/2016sig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672ED85F-C802-094A-81EC-09CE53E2AF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3586119-C9C7-5B43-8694-707336E6D4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,7 +486,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
@@ -530,7 +530,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -574,7 +574,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -618,7 +618,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -662,7 +662,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
@@ -706,7 +706,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -750,7 +750,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
@@ -794,7 +794,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
@@ -838,7 +838,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
@@ -882,7 +882,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -926,7 +926,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
@@ -970,7 +970,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
@@ -1014,7 +1014,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
@@ -1058,7 +1058,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
@@ -1102,7 +1102,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
@@ -1146,7 +1146,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>

--- a/wzrv/expdata/2016sig.xlsx
+++ b/wzrv/expdata/2016sig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3586119-C9C7-5B43-8694-707336E6D4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EDE700-8BCD-F34E-9122-2F820E975E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="19">
   <si>
     <t>cms</t>
   </si>
@@ -91,22 +91,26 @@
   </si>
   <si>
     <t>syst_u</t>
-  </si>
-  <si>
-    <t>pt_max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,9 +133,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -414,766 +421,715 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="10.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1"/>
-    <col min="14" max="14" width="17.1640625" style="1" customWidth="1"/>
-    <col min="1015" max="1026" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1"/>
+    <col min="3" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1014" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>2.25</v>
       </c>
-      <c r="D2" s="1">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1">
-        <v>70</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>753.6</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>4.8</v>
       </c>
-      <c r="I2" s="1">
-        <v>16</v>
-      </c>
       <c r="J2" s="1">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1">
         <v>12.8</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B3" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D3" s="1">
         <v>2.25</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <v>2.5</v>
       </c>
-      <c r="D3" s="1">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1">
-        <v>70</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>701.2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>3.6</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>14.4</v>
       </c>
-      <c r="J3" s="1">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
+      <c r="K3" s="1">
+        <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B4" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D4" s="1">
         <v>2.5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1">
         <v>2.75</v>
       </c>
-      <c r="D4" s="1">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1">
-        <v>70</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>605.20000000000005</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>3.2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>10.4</v>
       </c>
       <c r="J4" s="1">
         <v>10.4</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
+      <c r="K4" s="1">
+        <v>10.4</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B5" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D5" s="1">
         <v>2.75</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1">
-        <v>70</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="1">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>481.2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>2.8</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>8</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>8.4</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B6" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="1">
         <v>3.25</v>
       </c>
-      <c r="D6" s="1">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1">
-        <v>70</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>369.6</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>2.4</v>
-      </c>
-      <c r="I6" s="1">
-        <v>6.4</v>
       </c>
       <c r="J6" s="1">
         <v>6.4</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>16</v>
+      <c r="K6" s="1">
+        <v>6.4</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B7" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D7" s="1">
         <v>3.25</v>
       </c>
-      <c r="C7" s="1">
+      <c r="E7" s="1">
         <v>3.5</v>
       </c>
-      <c r="D7" s="1">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1">
-        <v>70</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>241.6</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>4</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B8" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D8" s="1">
         <v>3.5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="E8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="1">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1">
-        <v>70</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="1">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>117.6</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2</v>
       </c>
       <c r="J8" s="1">
         <v>2</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>16</v>
+      <c r="K8" s="1">
+        <v>2</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B9" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
+      <c r="E9" s="1">
         <v>4.5</v>
       </c>
-      <c r="D9" s="1">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1">
-        <v>70</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="1">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>28.2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.8</v>
       </c>
       <c r="I9" s="1">
         <v>0.8</v>
       </c>
       <c r="J9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="1">
         <v>0.4</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B10" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="E10" s="1">
         <v>2.25</v>
       </c>
-      <c r="D10" s="1">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1">
-        <v>70</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="1">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>435.6</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>3.6</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>9.6</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>7.6</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D11" s="1">
         <v>2.25</v>
       </c>
-      <c r="C11" s="1">
+      <c r="E11" s="1">
         <v>2.5</v>
       </c>
-      <c r="D11" s="1">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1">
-        <v>70</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="1">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>411.2</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>2.8</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>7.2</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D12" s="1">
         <v>2.5</v>
       </c>
-      <c r="C12" s="1">
+      <c r="E12" s="1">
         <v>2.75</v>
       </c>
-      <c r="D12" s="1">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1">
-        <v>70</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="1">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>376.8</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>2.8</v>
-      </c>
-      <c r="I12" s="1">
-        <v>6.4</v>
       </c>
       <c r="J12" s="1">
         <v>6.4</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>16</v>
+      <c r="K12" s="1">
+        <v>6.4</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D13" s="1">
         <v>2.75</v>
       </c>
-      <c r="C13" s="1">
+      <c r="E13" s="1">
         <v>3</v>
       </c>
-      <c r="D13" s="1">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1">
-        <v>70</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="1">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>346.8</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>2.4</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>7.2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>6</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="C14" s="1">
+      <c r="E14" s="1">
         <v>3.25</v>
       </c>
-      <c r="D14" s="1">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1">
-        <v>70</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="1">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>316</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>2.4</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>6.4</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>5.6</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D15" s="1">
         <v>3.25</v>
       </c>
-      <c r="C15" s="1">
+      <c r="E15" s="1">
         <v>3.5</v>
       </c>
-      <c r="D15" s="1">
-        <v>20</v>
-      </c>
-      <c r="E15" s="1">
-        <v>70</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="1">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>268.8</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>2</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>6.4</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B16" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D16" s="1">
         <v>3.5</v>
       </c>
-      <c r="C16" s="1">
+      <c r="E16" s="1">
         <v>4</v>
       </c>
-      <c r="D16" s="1">
-        <v>20</v>
-      </c>
-      <c r="E16" s="1">
-        <v>70</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="1">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>188</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>1.4</v>
-      </c>
-      <c r="I16" s="1">
-        <v>3.2</v>
       </c>
       <c r="J16" s="1">
         <v>3.2</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>16</v>
+      <c r="K16" s="1">
+        <v>3.2</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B17" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D17" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="1">
+      <c r="E17" s="1">
         <v>4.5</v>
       </c>
-      <c r="D17" s="1">
-        <v>20</v>
-      </c>
-      <c r="E17" s="1">
-        <v>70</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="1">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>85.8</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>1.4</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>2.6</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>1.4</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
